--- a/static/df_to_excel/final_output.xlsx
+++ b/static/df_to_excel/final_output.xlsx
@@ -1,37 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>VendorName</t>
+  </si>
+  <si>
+    <t>Jan 20</t>
+  </si>
+  <si>
+    <t>Feb 20</t>
+  </si>
+  <si>
+    <t>Mar 20</t>
+  </si>
+  <si>
+    <t>Apr 20</t>
+  </si>
+  <si>
+    <t>May 20</t>
+  </si>
+  <si>
+    <t>Jun 20</t>
+  </si>
+  <si>
+    <t>Jul 20</t>
+  </si>
+  <si>
+    <t>Aug 20</t>
+  </si>
+  <si>
+    <t>Sep 20</t>
+  </si>
+  <si>
+    <t>Oct 20</t>
+  </si>
+  <si>
+    <t>Aasaanjobs Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Talent Labs Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Poonam It Consultant Private Limited</t>
+  </si>
+  <si>
+    <t>Fretus Folks India Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Spnn Business Services Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Alk Talent Search Llp</t>
+  </si>
+  <si>
+    <t>Novho Careers Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Merlin Facilities Private Limited</t>
+  </si>
+  <si>
+    <t>Watermelon Hr Services Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Yashika Facility &amp; Manpower Solution</t>
+  </si>
+  <si>
+    <t>Manabs Sourcing Solutions Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Adhaan Solution Pvt Ltd.</t>
+  </si>
+  <si>
+    <t>Innovsource Pvt Ltd.</t>
+  </si>
+  <si>
+    <t>Teamlease Services Limited</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +129,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,83 +148,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -421,37 +445,539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>VendorName</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Slv Manpower Solutions</t>
-        </is>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>46</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>46</v>
+      </c>
+      <c r="I2">
+        <v>44</v>
+      </c>
+      <c r="J2">
+        <v>54</v>
+      </c>
+      <c r="K2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>667</v>
+      </c>
+      <c r="C3">
+        <v>651</v>
+      </c>
+      <c r="D3">
+        <v>611</v>
+      </c>
+      <c r="E3">
+        <v>558</v>
+      </c>
+      <c r="F3">
+        <v>542</v>
+      </c>
+      <c r="G3">
+        <v>513</v>
+      </c>
+      <c r="H3">
+        <v>501</v>
+      </c>
+      <c r="I3">
+        <v>497</v>
+      </c>
+      <c r="J3">
+        <v>490</v>
+      </c>
+      <c r="K3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <v>81</v>
+      </c>
+      <c r="E6">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>92</v>
+      </c>
+      <c r="I6">
+        <v>96</v>
+      </c>
+      <c r="J6">
+        <v>106</v>
+      </c>
+      <c r="K6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>548</v>
+      </c>
+      <c r="C7">
+        <v>545</v>
+      </c>
+      <c r="D7">
+        <v>514</v>
+      </c>
+      <c r="E7">
+        <v>501</v>
+      </c>
+      <c r="F7">
+        <v>489</v>
+      </c>
+      <c r="G7">
+        <v>454</v>
+      </c>
+      <c r="H7">
+        <v>461</v>
+      </c>
+      <c r="I7">
+        <v>462</v>
+      </c>
+      <c r="J7">
+        <v>452</v>
+      </c>
+      <c r="K7">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/df_to_excel/final_output.xlsx
+++ b/static/df_to_excel/final_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>VendorName</t>
   </si>
@@ -49,46 +49,85 @@
     <t>Oct 20</t>
   </si>
   <si>
+    <t>Fretus Folks India Pvt. Ltd.</t>
+  </si>
+  <si>
     <t>Aasaanjobs Pvt. Ltd.</t>
   </si>
   <si>
+    <t>Spnn Business Services Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Alk Talent Search Llp</t>
+  </si>
+  <si>
+    <t>Poonam It Consultant Private Limited</t>
+  </si>
+  <si>
     <t>Talent Labs Pvt. Ltd.</t>
   </si>
   <si>
-    <t>Poonam It Consultant Private Limited</t>
-  </si>
-  <si>
-    <t>Fretus Folks India Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>Spnn Business Services Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>Alk Talent Search Llp</t>
+    <t>Zeelog Logistics Private Limited</t>
+  </si>
+  <si>
+    <t>Adhaan Solution Pvt Ltd.</t>
+  </si>
+  <si>
+    <t>Watermelon Hr Services Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Merlin Facilities Private Limited</t>
   </si>
   <si>
     <t>Novho Careers Pvt. Ltd.</t>
   </si>
   <si>
-    <t>Merlin Facilities Private Limited</t>
-  </si>
-  <si>
-    <t>Watermelon Hr Services Pvt. Ltd.</t>
+    <t>Redex Enterprise</t>
+  </si>
+  <si>
+    <t>Manabs Sourcing Solutions Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Slv Manpower Solutions</t>
+  </si>
+  <si>
+    <t>Teamlease Services Limited</t>
   </si>
   <si>
     <t>Yashika Facility &amp; Manpower Solution</t>
   </si>
   <si>
-    <t>Manabs Sourcing Solutions Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>Adhaan Solution Pvt Ltd.</t>
+    <t>Vprove Manpower Solutions</t>
+  </si>
+  <si>
+    <t>Habitus Hr Solutions Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Netrika Consulting India Pvt. Ltd.</t>
   </si>
   <si>
     <t>Innovsource Pvt Ltd.</t>
   </si>
   <si>
-    <t>Teamlease Services Limited</t>
+    <t>Netambit Infosource &amp; E-Services Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Yoma Multinational</t>
+  </si>
+  <si>
+    <t>Rs Hr Team Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>Asquare Hr Solutions Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Zeelog Logistics Pvt Ltd.</t>
+  </si>
+  <si>
+    <t>Redex Enterprises</t>
+  </si>
+  <si>
+    <t>Fretus Folks India Pvt Ltd</t>
   </si>
 </sst>
 </file>
@@ -446,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,34 +531,34 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>858</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>842</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>819</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>618</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>498</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>473</v>
       </c>
       <c r="H2">
-        <v>46</v>
+        <v>444</v>
       </c>
       <c r="I2">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>409</v>
       </c>
       <c r="K2">
-        <v>54</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -527,34 +566,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>667</v>
+        <v>1991</v>
       </c>
       <c r="C3">
-        <v>651</v>
+        <v>1887</v>
       </c>
       <c r="D3">
-        <v>611</v>
+        <v>1921</v>
       </c>
       <c r="E3">
-        <v>558</v>
+        <v>1343</v>
       </c>
       <c r="F3">
-        <v>542</v>
+        <v>1125</v>
       </c>
       <c r="G3">
-        <v>513</v>
+        <v>1072</v>
       </c>
       <c r="H3">
-        <v>501</v>
+        <v>1032</v>
       </c>
       <c r="I3">
-        <v>497</v>
+        <v>1024</v>
       </c>
       <c r="J3">
-        <v>490</v>
+        <v>1208</v>
       </c>
       <c r="K3">
-        <v>462</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -562,34 +601,34 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>3264</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>2991</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>2969</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2290</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>1976</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>2090</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>2298</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2530</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2758</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -597,34 +636,34 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>2295</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>2144</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>2192</v>
       </c>
       <c r="E5">
-        <v>53</v>
+        <v>1758</v>
       </c>
       <c r="F5">
-        <v>52</v>
+        <v>1535</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>1553</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>1738</v>
       </c>
       <c r="I5">
-        <v>37</v>
+        <v>2087</v>
       </c>
       <c r="J5">
-        <v>34</v>
+        <v>2383</v>
       </c>
       <c r="K5">
-        <v>31</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -632,34 +671,34 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -667,34 +706,34 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>548</v>
+        <v>1698</v>
       </c>
       <c r="C7">
-        <v>545</v>
+        <v>1527</v>
       </c>
       <c r="D7">
-        <v>514</v>
+        <v>1503</v>
       </c>
       <c r="E7">
-        <v>501</v>
+        <v>1065</v>
       </c>
       <c r="F7">
-        <v>489</v>
+        <v>928</v>
       </c>
       <c r="G7">
-        <v>454</v>
+        <v>918</v>
       </c>
       <c r="H7">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="I7">
-        <v>462</v>
+        <v>1134</v>
       </c>
       <c r="J7">
-        <v>452</v>
+        <v>1402</v>
       </c>
       <c r="K7">
-        <v>422</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -702,34 +741,34 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -737,34 +776,34 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,34 +811,34 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>853</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>935</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>946</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>657</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>526</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>503</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="I10">
-        <v>19</v>
+        <v>462</v>
       </c>
       <c r="J10">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="K10">
-        <v>17</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,34 +846,34 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>547</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>487</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>468</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -842,34 +881,34 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -877,34 +916,34 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -912,25 +951,25 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D14">
+        <v>213</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
         <v>11</v>
       </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>8</v>
       </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
       <c r="H14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -950,30 +989,485 @@
         <v>5</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>438</v>
+      </c>
+      <c r="C16">
+        <v>347</v>
+      </c>
+      <c r="D16">
+        <v>311</v>
+      </c>
+      <c r="E16">
+        <v>88</v>
+      </c>
+      <c r="F16">
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <v>37</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>127</v>
+      </c>
+      <c r="C21">
+        <v>205</v>
+      </c>
+      <c r="D21">
+        <v>201</v>
+      </c>
+      <c r="E21">
+        <v>93</v>
+      </c>
+      <c r="F21">
+        <v>37</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
         <v>6</v>
       </c>
-      <c r="D15">
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>31</v>
+      </c>
+      <c r="J22">
+        <v>29</v>
+      </c>
+      <c r="K22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
         <v>4</v>
       </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>0</v>
       </c>
     </row>

--- a/static/df_to_excel/final_output.xlsx
+++ b/static/df_to_excel/final_output.xlsx
@@ -29,10 +29,10 @@
       <b val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -40,7 +40,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -49,11 +49,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0099A7C6"/>
+        <fgColor rgb="00808080"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill>
+        <fgColor rgb="00808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
@@ -74,16 +79,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left>
         <color rgb="00000000"/>
       </left>
-      <right style="thin">
+      <right>
         <color rgb="00000000"/>
       </right>
-      <top style="thin">
+      <top>
         <color rgb="00000000"/>
       </top>
-      <bottom style="thin">
+      <bottom>
         <color rgb="00000000"/>
       </bottom>
       <diagonal/>
@@ -92,14 +97,14 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -107,23 +112,23 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="6404693468011699568" xfId="1" hidden="0"/>
-    <cellStyle name="5723812357999493894" xfId="2" hidden="0"/>
-    <cellStyle name="-244941717081322732" xfId="3" hidden="0"/>
+    <cellStyle name="-1131784319954320572" xfId="1" hidden="0"/>
+    <cellStyle name="6214905456282731285" xfId="2" hidden="0"/>
+    <cellStyle name="7198041344854554797" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -486,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,534 +567,534 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Aasaanjobs Pvt. Ltd.</t>
+          <t>Fretus Folks India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1230</v>
+        <v>858</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>1206</v>
+        <v>842</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1197</v>
+        <v>819</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1161</v>
+        <v>618</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>1082</v>
+        <v>498</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>845</v>
+        <v>473</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>836</v>
+        <v>444</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>806</v>
+        <v>425</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>792</v>
+        <v>409</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>761</v>
+        <v>398</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>719</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Zeelog Logistics Private Limited</t>
+          <t>Aasaanjobs Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>53</v>
+        <v>1991</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>57</v>
+        <v>1887</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>60</v>
+        <v>1921</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>67</v>
+        <v>1343</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>68</v>
+        <v>1125</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>77</v>
+        <v>1072</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>95</v>
+        <v>1032</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>111</v>
+        <v>1024</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>105</v>
+        <v>1208</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>110</v>
+        <v>1295</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>110</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Fretus Folks India Pvt. Ltd.</t>
+          <t>Spnn Business Services Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>1373</v>
+        <v>3264</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>1293</v>
+        <v>2991</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>1233</v>
+        <v>2969</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>1080</v>
+        <v>2290</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>1064</v>
+        <v>1976</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>897</v>
+        <v>2090</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>811</v>
+        <v>2298</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>815</v>
+        <v>2530</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>841</v>
+        <v>2758</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>795</v>
+        <v>2915</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>767</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Poonam It Consultant Private Limited</t>
+          <t>Alk Talent Search Llp</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>5</v>
+        <v>2295</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>5</v>
+        <v>2144</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>5</v>
+        <v>2192</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>4</v>
+        <v>1758</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>4</v>
+        <v>1535</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>1</v>
+        <v>1553</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>1</v>
+        <v>1738</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>2</v>
+        <v>2087</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>0</v>
+        <v>2383</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>0</v>
+        <v>2674</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Watermelon Hr Services Pvt. Ltd.</t>
+          <t>Poonam It Consultant Private Limited</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>943</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1043</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>1099</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>1002</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>967</v>
+        <v>5</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>689</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>682</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>675</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Novho Careers Pvt. Ltd.</t>
+          <t>Talent Labs Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>2335</v>
+        <v>1698</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>2343</v>
+        <v>1527</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>2325</v>
+        <v>1503</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>2218</v>
+        <v>1065</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>2119</v>
+        <v>928</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>1699</v>
+        <v>918</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>1869</v>
+        <v>952</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>1904</v>
+        <v>1134</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>1849</v>
+        <v>1402</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>1756</v>
+        <v>1651</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>1630</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Merlin Facilities Private Limited</t>
+          <t>Zeelog Logistics Private Limited</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>633</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>647</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>619</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>573</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>540</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>425</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>389</v>
+        <v>3</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>338</v>
+        <v>3</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>288</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Talent Labs Pvt. Ltd.</t>
+          <t>Adhaan Solution Pvt Ltd.</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>658</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>673</v>
+        <v>138</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>685</v>
+        <v>147</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>638</v>
+        <v>131</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>596</v>
+        <v>102</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>456</v>
+        <v>127</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>488</v>
+        <v>148</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>608</v>
+        <v>131</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>659</v>
+        <v>133</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>708</v>
+        <v>149</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>671</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Yashika Facility &amp; Manpower Solution</t>
+          <t>Watermelon Hr Services Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>329</v>
+        <v>853</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>255</v>
+        <v>935</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>214</v>
+        <v>946</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>194</v>
+        <v>657</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>140</v>
+        <v>526</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>48</v>
+        <v>503</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>17</v>
+        <v>462</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Alk Talent Search Llp</t>
+          <t>Merlin Facilities Private Limited</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>1176</v>
+        <v>547</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>1119</v>
+        <v>487</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>1075</v>
+        <v>468</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>977</v>
+        <v>256</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>939</v>
+        <v>232</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>885</v>
+        <v>220</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>1008</v>
+        <v>209</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>1208</v>
+        <v>204</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>1271</v>
+        <v>192</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>1305</v>
+        <v>183</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>1217</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Spnn Business Services Pvt. Ltd.</t>
+          <t>Novho Careers Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>1654</v>
+        <v>196</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>1568</v>
+        <v>202</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>1601</v>
+        <v>202</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>1529</v>
+        <v>86</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>1388</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>1190</v>
+        <v>86</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>1431</v>
+        <v>101</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>1680</v>
+        <v>105</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>1684</v>
+        <v>112</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>1649</v>
+        <v>135</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>1558</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Adhaan Solution Pvt Ltd.</t>
+          <t>Redex Enterprise</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>292</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>370</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>339</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>340</v>
+        <v>26</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>329</v>
+        <v>26</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>350</v>
+        <v>23</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>347</v>
+        <v>25</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>310</v>
+        <v>34</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>273</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Redex Enterprise</t>
+          <t>Manabs Sourcing Solutions Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Vprove Manpower Solutions</t>
+          <t>Slv Manpower Solutions</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>0</v>
@@ -1122,29 +1127,29 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Slv Manpower Solutions</t>
+          <t>Teamlease Services Limited</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>61</v>
+        <v>438</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>0</v>
@@ -1162,23 +1167,23 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Habitus Hr Solutions Pvt. Ltd.</t>
+          <t>Yashika Facility &amp; Manpower Solution</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="E17" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>0</v>
@@ -1202,32 +1207,32 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Manabs Sourcing Solutions Pvt. Ltd.</t>
+          <t>Vprove Manpower Solutions</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>0</v>
@@ -1242,26 +1247,26 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Teamlease Services Limited</t>
+          <t>Habitus Hr Solutions Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3" t="n">
         <v>0</v>
@@ -1282,29 +1287,29 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Weavings Manpower Solutions Pvt Ltd</t>
+          <t>Netrika Consulting India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>0</v>
@@ -1326,28 +1331,28 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H21" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="n">
         <v>2</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="J21" s="3" t="n">
         <v>0</v>
@@ -1362,78 +1367,78 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>R S Facility Service Pvt Ltd</t>
+          <t>Netambit Infosource &amp; E-Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H22" s="3" t="n">
         <v>20</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Aspire Nxt Private Limited</t>
+          <t>Yoma Multinational</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="n">
         <v>0</v>
@@ -1449,47 +1454,47 @@
         <v>0</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Yoma Multinational</t>
+          <t>Asquare Hr Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>0</v>
@@ -1501,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3" t="n">
         <v>0</v>
@@ -1510,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Netambit Infosource &amp; E-Services Pvt Ltd</t>
+          <t>Zeelog Logistics Pvt Ltd.</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
@@ -1538,31 +1543,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>B.R. Manpower Facility Management Pvt Ltd</t>
+          <t>Redex Enterprises</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
@@ -1584,25 +1589,25 @@
         <v>0</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Asquare Hr Solutions Pvt Ltd</t>
+          <t>Fretus Folks India Pvt Ltd</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
@@ -1630,133 +1635,49 @@
         <v>0</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Zeelog Logistics Pvt Ltd.</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="inlineStr"/>
       <c r="B29" s="3" t="n">
-        <v>0</v>
+        <v>12811</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0</v>
+        <v>12059</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>0</v>
+        <v>12027</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>0</v>
+        <v>8489</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>0</v>
+        <v>7164</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>0</v>
+        <v>7159</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>0</v>
+        <v>7477</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>0</v>
+        <v>8162</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>0</v>
+        <v>9104</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>0</v>
+        <v>9962</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Redex Enterprises</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Fretus Folks India Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3" t="n">
-        <v>3</v>
+        <v>10249</v>
       </c>
     </row>
   </sheetData>

--- a/static/df_to_excel/final_output.xlsx
+++ b/static/df_to_excel/final_output.xlsx
@@ -126,9 +126,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-1131784319954320572" xfId="1" hidden="0"/>
-    <cellStyle name="6214905456282731285" xfId="2" hidden="0"/>
-    <cellStyle name="7198041344854554797" xfId="3" hidden="0"/>
+    <cellStyle name="-2009733864835402857" xfId="1" hidden="0"/>
+    <cellStyle name="-2872063469181788738" xfId="2" hidden="0"/>
+    <cellStyle name="448220312895215438" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -491,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,321 +567,321 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fretus Folks India Pvt. Ltd.</t>
+          <t>Aasaanjobs Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>858</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>842</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>819</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>618</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>498</v>
+        <v>52</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>473</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>444</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>425</v>
+        <v>52</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>409</v>
+        <v>60</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>389</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Aasaanjobs Pvt. Ltd.</t>
+          <t>Talent Labs Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1991</v>
+        <v>702</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1887</v>
+        <v>686</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>1921</v>
+        <v>646</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>1343</v>
+        <v>593</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>1125</v>
+        <v>577</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>1072</v>
+        <v>547</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>1032</v>
+        <v>534</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>1024</v>
+        <v>527</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>1208</v>
+        <v>517</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>1295</v>
+        <v>488</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>1338</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Spnn Business Services Pvt. Ltd.</t>
+          <t>Poonam It Consultant Private Limited</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>3264</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>2991</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2969</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>2290</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>1976</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>2090</v>
+        <v>5</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>2298</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>2530</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>2758</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>2915</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>2910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Alk Talent Search Llp</t>
+          <t>Fretus Folks India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>2295</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>2144</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>2192</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>1758</v>
+        <v>56</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>1535</v>
+        <v>55</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>1553</v>
+        <v>47</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>1738</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>2087</v>
+        <v>40</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>2383</v>
+        <v>37</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>2674</v>
+        <v>34</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>2691</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Poonam It Consultant Private Limited</t>
+          <t>Spnn Business Services Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Talent Labs Pvt. Ltd.</t>
+          <t>Alk Talent Search Llp</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>1698</v>
+        <v>575</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1527</v>
+        <v>572</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>1503</v>
+        <v>541</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>1065</v>
+        <v>527</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>928</v>
+        <v>515</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>918</v>
+        <v>480</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>952</v>
+        <v>485</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>1134</v>
+        <v>485</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>1402</v>
+        <v>474</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>1651</v>
+        <v>439</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>1739</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Zeelog Logistics Private Limited</t>
+          <t>Novho Careers Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Adhaan Solution Pvt Ltd.</t>
+          <t>Merlin Facilities Private Limited</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>162</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -891,185 +891,185 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>853</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>935</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>946</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>657</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>526</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>503</v>
+        <v>21</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>478</v>
+        <v>20</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>462</v>
+        <v>20</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>444</v>
+        <v>19</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>437</v>
+        <v>18</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>467</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Merlin Facilities Private Limited</t>
+          <t>Yashika Facility &amp; Manpower Solution</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>487</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Novho Careers Pvt. Ltd.</t>
+          <t>Manabs Sourcing Solutions Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Redex Enterprise</t>
+          <t>Adhaan Solution Pvt Ltd.</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Manabs Sourcing Solutions Pvt. Ltd.</t>
+          <t>Innovsource Pvt Ltd.</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>266</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>0</v>
@@ -1087,26 +1087,26 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Slv Manpower Solutions</t>
+          <t>Teamlease Services Limited</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>0</v>
@@ -1127,29 +1127,29 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Teamlease Services Limited</t>
+          <t>Redex Enterprise</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>0</v>
@@ -1161,523 +1161,47 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Yashika Facility &amp; Manpower Solution</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>18</v>
+        <v>1591</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>17</v>
+        <v>1570</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>16</v>
+        <v>1479</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>9</v>
+        <v>1399</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>4</v>
+        <v>1364</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>0</v>
+        <v>1273</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>0</v>
+        <v>1177</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Vprove Manpower Solutions</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Habitus Hr Solutions Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Netrika Consulting India Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Innovsource Pvt Ltd.</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>127</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>205</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>201</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>93</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Netambit Infosource &amp; E-Services Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G22" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="K22" s="3" t="n">
-        <v>71</v>
-      </c>
-      <c r="L22" s="3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Yoma Multinational</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Rs Hr Team Solutions Private Limited</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Asquare Hr Solutions Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="L25" s="3" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Zeelog Logistics Pvt Ltd.</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Redex Enterprises</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Fretus Folks India Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr"/>
-      <c r="B29" s="3" t="n">
-        <v>12811</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>12059</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>12027</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>8489</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>7164</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>7159</v>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>7477</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>8162</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <v>9104</v>
-      </c>
-      <c r="K29" s="3" t="n">
-        <v>9962</v>
-      </c>
-      <c r="L29" s="3" t="n">
-        <v>10249</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>

--- a/static/df_to_excel/final_output.xlsx
+++ b/static/df_to_excel/final_output.xlsx
@@ -126,9 +126,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-2009733864835402857" xfId="1" hidden="0"/>
-    <cellStyle name="-2872063469181788738" xfId="2" hidden="0"/>
-    <cellStyle name="448220312895215438" xfId="3" hidden="0"/>
+    <cellStyle name="1545925884360425278" xfId="1" hidden="0"/>
+    <cellStyle name="-1322940539674541916" xfId="2" hidden="0"/>
+    <cellStyle name="5502485749643783895" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -491,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,325 +563,354 @@
           <t>Nov 20</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Dec 20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Aasaanjobs Pvt. Ltd.</t>
+          <t>Fretus Folks India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>52</v>
+        <v>863</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>52</v>
+        <v>831</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>51</v>
+        <v>830</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>54</v>
+        <v>819</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>52</v>
+        <v>617</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>51</v>
+        <v>496</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>54</v>
+        <v>471</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>52</v>
+        <v>444</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>60</v>
+        <v>422</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>59</v>
+        <v>409</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>59</v>
+        <v>390</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Talent Labs Pvt. Ltd.</t>
+          <t>Aasaanjobs Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>702</v>
+        <v>2009</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>686</v>
+        <v>1951</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>646</v>
+        <v>1871</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>593</v>
+        <v>1916</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>577</v>
+        <v>1337</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>547</v>
+        <v>1123</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>534</v>
+        <v>1063</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>527</v>
+        <v>1029</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>517</v>
+        <v>1010</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>488</v>
+        <v>1205</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>447</v>
+        <v>1263</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Poonam It Consultant Private Limited</t>
+          <t>Spnn Business Services Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>25</v>
+        <v>3135</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>24</v>
+        <v>3205</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>17</v>
+        <v>2962</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>6</v>
+        <v>2965</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>5</v>
+        <v>2282</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>5</v>
+        <v>1970</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>2</v>
+        <v>2074</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0</v>
+        <v>2283</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0</v>
+        <v>2511</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0</v>
+        <v>2807</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>2867</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>2836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Fretus Folks India Pvt. Ltd.</t>
+          <t>Alk Talent Search Llp</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>57</v>
+        <v>2198</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>61</v>
+        <v>2242</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>57</v>
+        <v>2121</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>56</v>
+        <v>2192</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>55</v>
+        <v>1752</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>47</v>
+        <v>1541</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>43</v>
+        <v>1540</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>40</v>
+        <v>1734</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>37</v>
+        <v>2098</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>34</v>
+        <v>2448</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>33</v>
+        <v>2602</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>2592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Spnn Business Services Pvt. Ltd.</t>
+          <t>Poonam It Consultant Private Limited</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Alk Talent Search Llp</t>
+          <t>Talent Labs Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>575</v>
+        <v>1677</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>572</v>
+        <v>1677</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>541</v>
+        <v>1511</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>527</v>
+        <v>1502</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>515</v>
+        <v>1062</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>480</v>
+        <v>924</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>485</v>
+        <v>913</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>485</v>
+        <v>964</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>474</v>
+        <v>1135</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>439</v>
+        <v>1452</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>402</v>
+        <v>1621</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>1762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Novho Careers Pvt. Ltd.</t>
+          <t>Zeelog Logistics Private Limited</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Merlin Facilities Private Limited</t>
+          <t>Adhaan Solution Pvt Ltd.</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>14</v>
+        <v>142</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="10">
@@ -891,188 +920,200 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>24</v>
+        <v>799</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>25</v>
+        <v>840</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>22</v>
+        <v>927</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>22</v>
+        <v>944</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>22</v>
+        <v>655</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>21</v>
+        <v>521</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>20</v>
+        <v>499</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>20</v>
+        <v>476</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>18</v>
+        <v>445</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>17</v>
+        <v>429</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Yashika Facility &amp; Manpower Solution</t>
+          <t>Merlin Facilities Private Limited</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>2</v>
+        <v>573</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>1</v>
+        <v>525</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>1</v>
+        <v>483</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Manabs Sourcing Solutions Pvt. Ltd.</t>
+          <t>Novho Careers Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Adhaan Solution Pvt Ltd.</t>
+          <t>Redex Enterprise</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Innovsource Pvt Ltd.</t>
+          <t>Manabs Sourcing Solutions Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>7</v>
+        <v>287</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="D14" s="3" t="n">
+        <v>221</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>211</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3" t="n">
+      <c r="H14" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>0</v>
@@ -1081,32 +1122,35 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Teamlease Services Limited</t>
+          <t>Slv Manpower Solutions</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>0</v>
@@ -1121,38 +1165,41 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Redex Enterprise</t>
+          <t>Teamlease Services Limited</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>0</v>
@@ -1161,47 +1208,526 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
+          <t>Yashika Facility &amp; Manpower Solution</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Vprove Manpower Solutions</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Habitus Hr Solutions Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Netrika Consulting India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Innovsource Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Netambit Infosource &amp; E-Services Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Yoma Multinational</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Rs Hr Team Solutions Private Limited</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Asquare Hr Solutions Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Zeelog Logistics Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Redex Enterprises</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
-        <v>1591</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>1570</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>1479</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1399</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>1364</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>1279</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>1273</v>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>1257</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>1248</v>
-      </c>
-      <c r="K17" s="3" t="n">
-        <v>1177</v>
-      </c>
-      <c r="L17" s="3" t="n">
-        <v>1084</v>
+      <c r="B28" s="3" t="n">
+        <v>12363</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>12524</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>11932</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>12011</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>8460</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>7144</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>7108</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>7455</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>8125</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>9297</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>9758</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>10076</v>
       </c>
     </row>
   </sheetData>
